--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_12.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309998</v>
+        <v>5571875.219309997</v>
       </c>
     </row>
     <row r="11">
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -759,7 +759,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -947,10 +947,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>103.0088977318019</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1388,10 +1388,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,22 +1613,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,61 +2093,61 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2160,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>32.59406471070921</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>81.13435889727448</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>124.906780124857</v>
       </c>
       <c r="C24" t="n">
-        <v>136.9159726472779</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,67 +2561,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="C27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2752,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2798,17 +2798,17 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>70.04918466062357</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,64 +3038,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>117.530383720924</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3263,73 +3263,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>190.3453970742848</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>29.05241763862477</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>47.5077625120064</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>23.26470831312115</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3676,43 +3676,43 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>39.68535441499402</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4074,7 +4074,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>127.2360271755735</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4358,19 +4358,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="X2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4386,25 +4386,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,10 +4413,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>487.4018176583718</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y5" t="n">
-        <v>487.4018176583718</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F6" t="n">
         <v>362.4348659156472</v>
@@ -4647,16 +4647,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="7">
@@ -4741,13 +4741,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="M12" t="n">
         <v>234.810827406191</v>
-      </c>
-      <c r="M12" t="n">
-        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>730.8505943024719</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F14" t="n">
-        <v>487.4018176583718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W14" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X14" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5358,49 +5358,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5631,13 +5631,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5750,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>385.8949250843803</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C21" t="n">
-        <v>211.4418958032533</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5841,7 +5841,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="W21" t="n">
-        <v>761.8705608694022</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="X21" t="n">
-        <v>761.8705608694022</v>
+        <v>780.9337281874871</v>
       </c>
       <c r="Y21" t="n">
-        <v>554.1102621044483</v>
+        <v>780.9337281874871</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.5801053801904</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>533.6469426057913</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>533.6469426057913</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>325.7954424002585</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y24" t="n">
-        <v>325.7954424002585</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6260,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6309,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="28">
@@ -6400,16 +6400,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.38115216564972</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6546,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>416.5269346905088</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>416.5269346905088</v>
       </c>
     </row>
     <row r="31">
@@ -6649,13 +6649,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>679.0958513775852</v>
+        <v>617.1159779329607</v>
       </c>
       <c r="W33" t="n">
-        <v>435.6470747334852</v>
+        <v>373.6672012888606</v>
       </c>
       <c r="X33" t="n">
-        <v>227.7955745279523</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="34">
@@ -6838,22 +6838,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.38115216564972</v>
+        <v>433.7223438482202</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>641.4826426131742</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>641.4826426131742</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>641.4826426131742</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>641.4826426131742</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>641.4826426131742</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.38115216564972</v>
+        <v>433.7223438482202</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>366.1018663125844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>122.6530896684844</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>125.0774898247174</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>125.0774898247174</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7600,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7673,22 +7673,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
         <v>506.1786963984129</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>418.6697947459187</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C45" t="n">
-        <v>418.6697947459187</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D45" t="n">
-        <v>418.6697947459187</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7731,46 +7731,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>547.1910343172051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X45" t="n">
-        <v>418.6697947459187</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y45" t="n">
-        <v>418.6697947459187</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="46">
@@ -8061,13 +8061,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,7 +8307,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,7 +8535,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,10 +8544,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>360.302996258564</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,10 +9489,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,7 +10194,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10203,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>360.302996258564</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22598,22 +22598,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22799,10 +22799,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>110.0962526177847</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22835,10 +22835,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,16 +22863,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22981,16 +22981,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23267,7 +23267,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>174.0429600055611</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23276,10 +23276,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23337,28 +23337,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,22 +23501,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>161.0465736907239</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,7 +23552,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>325.9427623970988</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,10 +23981,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,7 +24014,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24048,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>114.8510008539295</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>90.54881220656334</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24212,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,13 +24248,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>41.62640352501036</v>
       </c>
       <c r="C24" t="n">
-        <v>35.79252634103781</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24333,16 +24333,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24406,10 +24406,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>182.397745374651</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24500,16 +24500,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>31.11902363415049</v>
       </c>
       <c r="C27" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24585,7 +24585,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24640,19 +24640,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,19 +24725,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>143.656081349691</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>155.8921974203512</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.812370168306</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25005,7 +25005,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,10 +25050,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>115.2702034285013</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,13 +25090,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>122.3993850387443</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.3884445891958</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25233,10 +25233,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>143.656081349691</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25251,7 +25251,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>152.6569661828152</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25473,16 +25473,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>124.1803572515176</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,16 +25631,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>133.0231445733217</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25716,10 +25716,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>101.0346019561178</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25840,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25913,13 +25913,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,16 +25941,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>121.2443095168949</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25962,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26004,10 +26004,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>78.53695802790395</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="C2" t="n">
         <v>99696.40351879942</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="D2" t="n">
-        <v>99696.4035187994</v>
-      </c>
       <c r="E2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="H2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="J2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879943</v>
-      </c>
       <c r="M2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421395</v>
+        <v>-29533.829274214</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733373</v>
+        <v>51235.60225733378</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733376</v>
+        <v>51235.60225733374</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="F6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="H6" t="n">
         <v>84863.20225733372</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822749</v>
+        <v>21803.25965822751</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.2022573337</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733379</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733377</v>
+        <v>84863.20225733376</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733375</v>
+        <v>84863.20225733372</v>
       </c>
       <c r="O6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733372</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34705,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,13 +34781,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,7 +35027,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,10 +35264,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35422,7 +35422,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36677,16 +36677,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36923,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507846.9793192722</v>
+        <v>509551.7353335389</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309997</v>
+        <v>5571875.219309998</v>
       </c>
     </row>
     <row r="11">
@@ -713,13 +715,13 @@
         <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -759,7 +761,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -953,7 +955,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,10 +1031,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>70.10136126801662</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>120.1832748619387</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1376,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F11" t="n">
-        <v>232.8330857361503</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>241.0142888776591</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1509,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>132.876626399942</v>
       </c>
       <c r="V14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1707,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1746,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1935,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1977,13 +1979,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2123,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2149,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,19 +2210,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>81.13435889727448</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2327,55 +2329,55 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>33.80371536444976</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>170.7632668135831</v>
       </c>
     </row>
     <row r="25">
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,67 +2560,67 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,61 +2800,61 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,10 +2873,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>70.04918466062357</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>142.8009741436499</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3111,22 +3113,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>87.95566939920795</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>117.530383720924</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>52.89562800289951</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>47.5077625120064</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
@@ -3518,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3582,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>23.26470831312115</v>
+        <v>1.667423870585606</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3712,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>39.68535441499402</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>4.320372589888956</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,61 +3988,61 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T44" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U44" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,31 +4055,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4361,10 +4363,10 @@
         <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
         <v>506.1786963984129</v>
@@ -4386,25 +4388,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,7 +4415,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
         <v>473.4149733950735</v>
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>132.7447050367114</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.7447050367114</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>487.2836868729568</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="W6" t="n">
-        <v>487.2836868729568</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X6" t="n">
-        <v>487.2836868729568</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y6" t="n">
-        <v>487.2836868729568</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="7">
@@ -4744,7 +4746,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>122.6530896684844</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6530896684844</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>122.6530896684844</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4860,7 +4862,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D9" t="n">
         <v>668.2068788942177</v>
@@ -4884,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F11" t="n">
         <v>718.7806050553886</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5157,13 +5159,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E14" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
         <v>231.8830517671884</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V14" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W14" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X14" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5394,13 +5396,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5627,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5771,28 +5773,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
         <v>262.7299197543128</v>
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>612.718391167419</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5844,7 +5846,7 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>780.9337281874871</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>780.9337281874871</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>780.9337281874871</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>780.9337281874871</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W21" t="n">
-        <v>780.9337281874871</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X21" t="n">
-        <v>780.9337281874871</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.9337281874871</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>353.3011080883284</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>145.4496078827955</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.4496078827955</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="25">
@@ -6172,19 +6174,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
         <v>829.5248650203655</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C29" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D29" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E29" t="n">
-        <v>495.259035872464</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>248.3115976704407</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C30" t="n">
-        <v>248.3115976704407</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>416.5269346905088</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>416.5269346905088</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>416.5269346905088</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X30" t="n">
-        <v>416.5269346905088</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y30" t="n">
-        <v>416.5269346905088</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="31">
@@ -6649,7 +6651,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6785,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>617.1159779329607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>373.6672012888606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>165.8157010833278</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>165.8157010833278</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
         <v>829.5248650203655</v>
@@ -6880,28 +6882,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>433.7223438482202</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C36" t="n">
-        <v>259.2693145670932</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="D36" t="n">
-        <v>110.334904905842</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7025,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>641.4826426131742</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>641.4826426131742</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>641.4826426131742</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>641.4826426131742</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>641.4826426131742</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y36" t="n">
-        <v>433.7223438482202</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7156,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>487.2836868729568</v>
+        <v>354.6558939327403</v>
       </c>
       <c r="C39" t="n">
-        <v>487.2836868729568</v>
+        <v>180.2028646516133</v>
       </c>
       <c r="D39" t="n">
-        <v>463.7839815061678</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y39" t="n">
-        <v>487.2836868729568</v>
+        <v>354.6558939327403</v>
       </c>
     </row>
     <row r="40">
@@ -7360,10 +7362,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
         <v>829.5248650203655</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7467,16 +7469,16 @@
         <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>304.5465265007123</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D42" t="n">
-        <v>304.5465265007123</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>23.64515582727228</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7600,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9492,10 +9494,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,22 +10433,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>349.0484638974528</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,13 +10673,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22601,13 +22603,13 @@
         <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
@@ -22626,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22647,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>110.0962526177847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22841,7 +22843,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22917,10 +22919,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>162.6992258814087</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22984,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>27.2617907027001</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F11" t="n">
-        <v>174.0429600055611</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>174.288448637476</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23397,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>118.4690265078945</v>
       </c>
       <c r="V14" t="n">
-        <v>325.9427623970988</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23595,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23634,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23865,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24035,7 +24037,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>323.8216709537613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,19 +24098,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>90.54881220656334</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24215,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,19 +24253,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>116.0654025766999</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41.62640352501036</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>34.91942896372123</v>
       </c>
     </row>
     <row r="25">
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31.11902363415049</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>176.6722207847417</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,10 +24761,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>155.8921974203512</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>108.8940090172697</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24889,10 +24891,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24999,22 +25001,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>59.4893961654308</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25050,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>115.2702034285013</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,13 +25092,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>122.3993850387443</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25205,13 +25207,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>92.17358439048436</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>152.6569661828152</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
@@ -25406,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25470,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>124.1803572515176</v>
+        <v>145.7776416940532</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25600,13 +25602,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>152.3883551917857</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>133.0231445733217</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>133.0231445733217</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,28 +25909,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>240.1525967516569</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25941,31 +25943,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>121.2443095168949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="13">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879939</v>
@@ -26338,22 +26340,22 @@
         <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="M2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="N2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879936</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.829274214</v>
+        <v>-29533.82927421402</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733378</v>
+        <v>51235.60225733376</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733374</v>
+        <v>51235.60225733376</v>
       </c>
       <c r="E6" t="n">
         <v>84863.20225733373</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733373</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733377</v>
       </c>
       <c r="I6" t="n">
         <v>84863.20225733375</v>
@@ -26546,22 +26548,22 @@
         <v>21803.25965822751</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733373</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.20225733376</v>
+        <v>84863.2022573337</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733372</v>
+        <v>84863.20225733375</v>
       </c>
       <c r="O6" t="n">
+        <v>84863.20225733375</v>
+      </c>
+      <c r="P6" t="n">
         <v>84863.20225733373</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84863.20225733372</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,10 +35421,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36212,10 +36214,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>55.51629994036219</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509551.7353335389</v>
+        <v>407299.4256466022</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514375</v>
+        <v>925399.3994514381</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5571875.219309998</v>
+        <v>5571875.219309996</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>142.0543828173919</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>208.2638363878125</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>70.10136126801662</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
@@ -1387,58 +1387,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>82.69355372315663</v>
       </c>
       <c r="W12" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1545,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>132.876626399942</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>78.94281254009712</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,19 +1736,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1897,10 +1897,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>120.9273370453295</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>44.86585471600711</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>151.27808017072</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -2216,19 +2216,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,40 +2253,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2332,16 +2332,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>170.7632668135831</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>234.2889057203109</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>49.31110394229507</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>82.28530073128356</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>142.8009741436499</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>190.3453970742847</v>
+        <v>70.34400780127513</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>87.95566939920795</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>230.841633860831</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434422</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>52.89562800289951</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>135.4141600157167</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3520,13 +3520,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.667423870585606</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>81.00537765493284</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>4.320372589888956</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>56.17030901074553</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>94.41048699370593</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.2757381414387</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V5" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W5" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>188.2506127830665</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>188.2506127830665</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4749,10 +4749,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W12" t="n">
-        <v>20.03527576299844</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5193,13 +5193,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>231.8830517671884</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V14" t="n">
-        <v>231.8830517671884</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W14" t="n">
-        <v>231.8830517671884</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5366,16 +5366,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5384,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="16">
@@ -5454,25 +5454,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U17" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>362.4348659156472</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="C18" t="n">
-        <v>362.4348659156472</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D18" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>918.7381103429523</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>918.7381103429523</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>716.5515157017182</v>
       </c>
       <c r="U18" t="n">
-        <v>362.4348659156472</v>
+        <v>716.5515157017182</v>
       </c>
       <c r="V18" t="n">
-        <v>362.4348659156472</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="W18" t="n">
-        <v>362.4348659156472</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="X18" t="n">
-        <v>362.4348659156472</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="Y18" t="n">
-        <v>362.4348659156472</v>
+        <v>481.3994074699755</v>
       </c>
     </row>
     <row r="19">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760316</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>380.6017161145382</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>172.8414173495843</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5934,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>340.2687303644548</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,16 +6074,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>340.2687303644548</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6238,40 +6238,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P26" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219591</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219591</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="W26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="C29" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="D29" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="E29" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="F29" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6475,40 +6475,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P29" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="V29" t="n">
-        <v>718.7806050553886</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="W29" t="n">
-        <v>475.3318284112885</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="X29" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="Y29" t="n">
-        <v>475.3318284112885</v>
+        <v>325.7766548071332</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>194.4883050441254</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>645.7885818937583</v>
       </c>
       <c r="W30" t="n">
-        <v>718.6442178376129</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X30" t="n">
-        <v>718.6442178376129</v>
+        <v>194.4883050441254</v>
       </c>
       <c r="Y30" t="n">
-        <v>510.883919072659</v>
+        <v>194.4883050441254</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6654,19 +6654,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="D32" t="n">
-        <v>710.516763498309</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6192102101089</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="H32" t="n">
-        <v>223.6192102101089</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6715,37 +6715,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330341</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330341</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889341</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>90.33569644483407</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>90.33569644483407</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>756.2968567456824</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C33" t="n">
-        <v>756.2968567456824</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D33" t="n">
-        <v>667.4527462414319</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="Y33" t="n">
-        <v>756.2968567456824</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>211.4418958032533</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>211.4418958032533</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>211.4418958032533</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="L36" t="n">
+        <v>304.2053859195203</v>
+      </c>
+      <c r="M36" t="n">
+        <v>304.2053859195203</v>
+      </c>
+      <c r="N36" t="n">
+        <v>542.8095319084027</v>
+      </c>
+      <c r="O36" t="n">
+        <v>781.4136778972852</v>
+      </c>
+      <c r="P36" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>964.057155510636</v>
+      </c>
+      <c r="R36" t="n">
+        <v>862.8876260635217</v>
+      </c>
+      <c r="S36" t="n">
+        <v>862.8876260635217</v>
+      </c>
+      <c r="T36" t="n">
+        <v>862.8876260635217</v>
+      </c>
+      <c r="U36" t="n">
+        <v>634.6640077999107</v>
+      </c>
+      <c r="V36" t="n">
+        <v>399.511899568168</v>
+      </c>
+      <c r="W36" t="n">
+        <v>156.063122924068</v>
+      </c>
+      <c r="X36" t="n">
         <v>19.28114311021272</v>
       </c>
-      <c r="L36" t="n">
-        <v>249.2442489785619</v>
-      </c>
-      <c r="M36" t="n">
-        <v>487.8483949674443</v>
-      </c>
-      <c r="N36" t="n">
-        <v>487.8483949674443</v>
-      </c>
-      <c r="O36" t="n">
-        <v>712.019119383956</v>
-      </c>
-      <c r="P36" t="n">
-        <v>894.6625969973069</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>964.0571555106362</v>
-      </c>
-      <c r="R36" t="n">
-        <v>964.0571555106362</v>
-      </c>
-      <c r="S36" t="n">
-        <v>964.0571555106362</v>
-      </c>
-      <c r="T36" t="n">
-        <v>761.8705608694022</v>
-      </c>
-      <c r="U36" t="n">
-        <v>761.8705608694022</v>
-      </c>
-      <c r="V36" t="n">
-        <v>761.8705608694022</v>
-      </c>
-      <c r="W36" t="n">
-        <v>761.8705608694022</v>
-      </c>
-      <c r="X36" t="n">
-        <v>761.8705608694022</v>
-      </c>
       <c r="Y36" t="n">
-        <v>554.1102621044483</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,16 +7119,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>354.6558939327403</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C39" t="n">
-        <v>180.2028646516133</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7262,10 +7262,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>562.4161926976942</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X39" t="n">
-        <v>562.4161926976942</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y39" t="n">
-        <v>354.6558939327403</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512332</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7423,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953333</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C42" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D42" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E42" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F42" t="n">
-        <v>23.64515582727228</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084243</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="43">
@@ -7593,13 +7593,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="W44" t="n">
-        <v>477.1596022224361</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="X44" t="n">
-        <v>233.7108255783361</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>210.8693966383478</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>210.8693966383478</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>210.8693966383478</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>210.8693966383478</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>210.8693966383478</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>210.8693966383478</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>454.3181732824478</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>210.8693966383478</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>210.8693966383478</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>210.8693966383478</v>
       </c>
     </row>
     <row r="46">
@@ -7794,7 +7794,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M3" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9014,7 +9014,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>303.312501347746</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9722,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519922</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>312.0408247018198</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519922</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056017</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
         <v>244.7225752110828</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22594,13 +22594,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15.59069763800903</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>43.08181652002401</v>
       </c>
       <c r="V5" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>162.6992258814087</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22989,13 +22989,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>27.2617907027001</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
@@ -23275,10 +23275,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="W12" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23433,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>118.4690265078945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23582,13 +23582,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>78.70226791530382</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>130.418315862507</v>
+        <v>156.9351659141304</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23828,13 +23828,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>55.29197943663602</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24025,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>15.25510347914729</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,19 +24104,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24296,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24344,7 +24344,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.91942896372123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24493,13 +24493,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>17.05674718752564</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>176.6302781386798</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>148.0596218681136</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24727,25 +24727,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2863534910952</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.3313640301775</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24815,19 +24815,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>143.6560813496912</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>108.8940090172697</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24858,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24937,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>20.13049249612121</v>
+        <v>140.1318817691308</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>59.4893961654308</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>1.958953288594273</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275653</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25207,10 +25207,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>92.17358439048436</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>70.3588251877608</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25396,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25408,13 +25408,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25472,22 +25472,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>145.7776416940532</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>105.5821905670137</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,31 +25627,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>258.4694244608343</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>133.0231445733217</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>176.6302781386797</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,10 +25912,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25924,16 +25924,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>291.8274516623476</v>
       </c>
     </row>
     <row r="45">
@@ -25961,10 +25961,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>11.95970609505778</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879937</v>
-      </c>
       <c r="L2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879934</v>
@@ -26352,10 +26352,10 @@
         <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.4035187994</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="M4" t="n">
         <v>179.5324977039669</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29533.82927421402</v>
+        <v>-41751.83989425446</v>
       </c>
       <c r="C6" t="n">
-        <v>51235.60225733376</v>
+        <v>39017.59163729327</v>
       </c>
       <c r="D6" t="n">
-        <v>51235.60225733376</v>
+        <v>39017.59163729328</v>
       </c>
       <c r="E6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729325</v>
       </c>
       <c r="F6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="G6" t="n">
-        <v>84863.20225733377</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="H6" t="n">
-        <v>84863.20225733377</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="I6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729326</v>
       </c>
       <c r="J6" t="n">
-        <v>21803.25965822751</v>
+        <v>9585.249038187054</v>
       </c>
       <c r="K6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="L6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729323</v>
       </c>
       <c r="M6" t="n">
-        <v>84863.2022573337</v>
+        <v>72645.19163729323</v>
       </c>
       <c r="N6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729328</v>
       </c>
       <c r="O6" t="n">
-        <v>84863.20225733375</v>
+        <v>72645.19163729323</v>
       </c>
       <c r="P6" t="n">
-        <v>84863.20225733373</v>
+        <v>72645.19163729329</v>
       </c>
     </row>
   </sheetData>
@@ -26813,25 +26813,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35968,10 +35968,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36840,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410584</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257275</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37630,13 +37630,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
         <v>113.3808631277494</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>407299.4256466022</v>
+        <v>499301.2742297005</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514381</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.9300607</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.0543828173919</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>170.7457531160715</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>29.79900896488251</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1505,16 +1505,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>82.69355372315663</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>62.52515684565935</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>78.94281254009712</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.86585471600711</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>151.27808017072</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>234.2889057203109</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="W26" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>49.31110394229507</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>62.4162677022923</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="U29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>33.93991708044859</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>82.28530073128356</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2970,43 +2970,43 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>70.34400780127513</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>241.014288877659</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W32" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.17871577922038</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>230.841633860831</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434422</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3407,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>135.4141600157167</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>58.39471844666272</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>71.01467844038824</v>
-      </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3587,25 +3587,25 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>52.0628898883872</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>61.68827609322839</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,49 +3666,49 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3751,19 +3751,19 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>81.00537765493284</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>66.34967692257985</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>56.17030901074553</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>94.41048699370593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>100.2757381414387</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.6869809678242</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.7766548071333</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C2" t="n">
-        <v>82.32787816303323</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>486.9119902784999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>312.4589609973729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>163.5245513361216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4600,19 +4600,19 @@
         <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454962</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="6">
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,10 +4670,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
         <v>933.9571464551993</v>
@@ -4755,13 +4755,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4840,16 +4840,16 @@
         <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U9" t="n">
-        <v>914.2479596093278</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C11" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5153,13 +5153,13 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>678.3417187247995</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X12" t="n">
         <v>227.0414418751666</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>577.2332497330343</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>577.2332497330343</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>577.2332497330343</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W14" t="n">
-        <v>333.7844730889342</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
         <v>19.28114311021272</v>
@@ -5360,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W15" t="n">
-        <v>384.2867411876791</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5472,7 +5472,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>481.3994074699755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>306.9463781888485</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>918.7381103429523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>918.7381103429523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>716.5515157017182</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>716.5515157017182</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>481.3994074699755</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>481.3994074699755</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X18" t="n">
-        <v>481.3994074699755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>481.3994074699755</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5697,10 +5697,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
         <v>506.1786963984129</v>
@@ -5740,10 +5740,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5785,16 +5785,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
         <v>720.6083788665362</v>
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>380.6017161145382</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>172.8414173495843</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>914.2479596093278</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>679.0958513775852</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>435.6470747334852</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>227.7955745279523</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6171,28 +6171,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543127</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6238,40 +6238,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P26" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219591</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>742.8341567219591</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984127</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984127</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543127</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543127</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950733</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>914.2479596093278</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>679.0958513775852</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>435.6470747334852</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>227.7955745279523</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y27" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>325.7766548071332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C29" t="n">
-        <v>325.7766548071332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7766548071332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E29" t="n">
-        <v>325.7766548071332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F29" t="n">
-        <v>325.7766548071332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G29" t="n">
-        <v>82.32787816303323</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H29" t="n">
-        <v>82.32787816303323</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6475,40 +6475,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P29" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953333</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953333</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953333</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="U29" t="n">
-        <v>569.2254314512332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V29" t="n">
-        <v>569.2254314512332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W29" t="n">
-        <v>569.2254314512332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X29" t="n">
-        <v>325.7766548071332</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y29" t="n">
-        <v>325.7766548071332</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.4883050441254</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299843</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299843</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299843</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299843</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299843</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299843</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.8095319084027</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.8095319084027</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972852</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>880.9406901255011</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>645.7885818937583</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>402.3398052496583</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>194.4883050441254</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.4883050441254</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6654,19 +6654,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6715,37 +6715,37 @@
         <v>725.2021500759372</v>
       </c>
       <c r="O32" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P32" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424089</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271062</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271062</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330341</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>577.2332497330341</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V32" t="n">
-        <v>333.7844730889341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>90.33569644483407</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>502.6601697108322</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C33" t="n">
-        <v>328.2071404297052</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299843</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299843</v>
+        <v>42.69398733164745</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470251</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>502.6601697108322</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W33" t="n">
-        <v>502.6601697108322</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X33" t="n">
-        <v>502.6601697108322</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y33" t="n">
-        <v>502.6601697108322</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="34">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984127</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984127</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984127</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543127</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="36">
@@ -7019,43 +7019,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195203</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195203</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>542.8095319084027</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972852</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635217</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635217</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635217</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999107</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>399.511899568168</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>156.063122924068</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7119,16 +7119,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F38" t="n">
-        <v>559.1338160830064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G38" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
         <v>31.35113235729608</v>
@@ -7204,22 +7204,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y38" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>470.5044397581705</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>901.7457655174762</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>699.5591708762422</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>619.4388494194218</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
         <v>19.28114311021272</v>
@@ -7356,28 +7356,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>812.6742080953333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>812.6742080953333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>812.6742080953333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>812.6742080953333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>569.2254314512332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>325.7766548071332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7423,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953333</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953333</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953333</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>812.6742080953333</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V41" t="n">
-        <v>812.6742080953333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W41" t="n">
-        <v>812.6742080953333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>812.6742080953333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>812.6742080953333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299843</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299843</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299843</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299843</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299843</v>
+        <v>225.7859768597565</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299843</v>
+        <v>87.05515144237202</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0584510084243</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470251</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>679.0958513775852</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>435.6470747334852</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299843</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984127</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984127</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984127</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984127</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543127</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7660,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953333</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>601.5428246748834</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>601.5428246748834</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U44" t="n">
-        <v>601.5428246748834</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V44" t="n">
-        <v>601.5428246748834</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W44" t="n">
-        <v>601.5428246748834</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>601.5428246748834</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984127</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252816</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217535</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141906</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141906</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141906</v>
+        <v>588.9357897816847</v>
       </c>
       <c r="V45" t="n">
-        <v>454.3181732824478</v>
+        <v>353.783681549942</v>
       </c>
       <c r="W45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y45" t="n">
-        <v>210.8693966383478</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="46">
@@ -7794,7 +7794,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519922</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221034</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.0408247018198</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519922</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056017</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221034</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996773</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N45" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D2" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>15.59069763800903</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,13 +22682,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>80.94923004484809</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>43.08181652002401</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23080,7 +23080,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.725383157348171</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23393,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>150.1070334262686</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>143.2478283578181</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23433,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>299.3870928771938</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23582,13 +23582,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>78.70226791530382</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23712,10 +23712,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,28 +23734,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>289.0078237680873</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>156.9351659141304</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>55.29197943663602</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,16 +23867,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23937,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24025,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.25510347914729</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,19 +24217,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>122.3720671615425</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>17.05674718752564</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>265.3359907678426</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>1.929357147493789</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>176.6302781386798</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>148.0596218681136</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="U29" t="n">
-        <v>10.3313640301775</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>103.403600082762</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>143.6560813496912</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24858,7 +24858,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>140.1318817691308</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247591</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25013,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>66.21791707219469</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25055,10 +25055,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>1.958953288594273</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>359.99386450645</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25295,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>70.3588251877608</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>356.9080190684723</v>
       </c>
       <c r="H38" t="n">
-        <v>268.4601236753789</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25475,25 +25475,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>105.5821905670137</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>109.9948950106094</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>258.4694244608343</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>45.88576731391662</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>176.6302781386797</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25879,7 +25879,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.2884486374761</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>269.3575400234722</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>291.8274516623476</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25961,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>11.95970609505778</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0.4777477269973929</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408644</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481865.9503408644</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481865.9503408642</v>
+        <v>481865.9503408641</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481865.9503408641</v>
+        <v>481865.9503408642</v>
       </c>
     </row>
   </sheetData>
@@ -26316,34 +26316,34 @@
         <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="E2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879939</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879937</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879934</v>
@@ -26352,10 +26352,10 @@
         <v>99696.40351879939</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.4035187994</v>
+        <v>99696.40351879942</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26447,7 +26447,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
         <v>179.5324977039669</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41751.83989425446</v>
+        <v>-30755.63033621804</v>
       </c>
       <c r="C6" t="n">
-        <v>39017.59163729327</v>
+        <v>50013.8011953297</v>
       </c>
       <c r="D6" t="n">
-        <v>39017.59163729328</v>
+        <v>50013.80119532972</v>
       </c>
       <c r="E6" t="n">
-        <v>72645.19163729325</v>
+        <v>83641.40119532967</v>
       </c>
       <c r="F6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532966</v>
       </c>
       <c r="G6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="H6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="I6" t="n">
-        <v>72645.19163729326</v>
+        <v>83641.40119532969</v>
       </c>
       <c r="J6" t="n">
-        <v>9585.249038187054</v>
+        <v>20581.45859622346</v>
       </c>
       <c r="K6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="L6" t="n">
-        <v>72645.19163729323</v>
+        <v>83641.40119532972</v>
       </c>
       <c r="M6" t="n">
-        <v>72645.19163729323</v>
+        <v>83641.40119532966</v>
       </c>
       <c r="N6" t="n">
-        <v>72645.19163729328</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="O6" t="n">
-        <v>72645.19163729323</v>
+        <v>83641.4011953297</v>
       </c>
       <c r="P6" t="n">
-        <v>72645.19163729329</v>
+        <v>83641.40119532973</v>
       </c>
     </row>
   </sheetData>
@@ -26813,25 +26813,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997385</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798015</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410584</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997385</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257275</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.014288877659</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.014288877659</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N45" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
